--- a/data-raw/schede_olio.xlsx
+++ b/data-raw/schede_olio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\file progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\OliveHealthR\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4BB6BE-9EB9-455F-AE16-ABC86BE7473B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8852503B-40AE-4EE2-B33C-4D40B949BBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
   <si>
     <t>Codice_azienda</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>SA_10</t>
+  </si>
+  <si>
+    <t>Anno</t>
   </si>
 </sst>
 </file>
@@ -454,464 +457,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
         <v>44157</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
         <v>44158</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
         <v>44157</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
         <v>44182</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
         <v>44236</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
         <v>44158</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
         <v>44172</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
         <v>44158</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
       <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
         <v>44172</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
         <v>44203</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
       <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
         <v>44203</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
       <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
         <v>44203</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
       <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>2020</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
         <v>44188</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
       <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
         <v>44188</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
       <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>2020</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
         <v>44168</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
       <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
         <v>44144</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20">
+        <v>2020</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
         <v>44194</v>
       </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
       <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21">
+        <v>2020</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
         <v>44165</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
       <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22">
+        <v>2020</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
         <v>44194</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
       <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
         <v>44166</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
       <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
         <v>44174</v>
       </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25">
+        <v>2020</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
         <v>44144</v>
       </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26">
+        <v>2020</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
         <v>44155</v>
       </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
         <v>44167</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
       <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data-raw/schede_olio.xlsx
+++ b/data-raw/schede_olio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\OliveHealthR\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\file progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8852503B-40AE-4EE2-B33C-4D40B949BBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1B9931-CD44-4574-9529-57E87D21C573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="1110" windowWidth="25275" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="41">
   <si>
     <t>Codice_azienda</t>
   </si>
@@ -72,21 +72,6 @@
     <t>AV_06</t>
   </si>
   <si>
-    <t>BN_1</t>
-  </si>
-  <si>
-    <t>BN_2</t>
-  </si>
-  <si>
-    <t>BN_3</t>
-  </si>
-  <si>
-    <t>BN_4</t>
-  </si>
-  <si>
-    <t>BN_5</t>
-  </si>
-  <si>
     <t>CE_01</t>
   </si>
   <si>
@@ -139,6 +124,30 @@
   </si>
   <si>
     <t>Anno</t>
+  </si>
+  <si>
+    <t>BN_01</t>
+  </si>
+  <si>
+    <t>BN_02</t>
+  </si>
+  <si>
+    <t>BN_03</t>
+  </si>
+  <si>
+    <t>BN_04</t>
+  </si>
+  <si>
+    <t>BN_05</t>
+  </si>
+  <si>
+    <t>Olio extra vergine di oliva filtrato blend</t>
+  </si>
+  <si>
+    <t>Olio extra vergine di oliva filtrato monovarietale Ravece</t>
+  </si>
+  <si>
+    <t>Olio extra vergine di oliva filtrato monovarietale Marinese</t>
   </si>
 </sst>
 </file>
@@ -154,12 +163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,9 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -457,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -604,7 +620,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>2020</v>
@@ -624,7 +640,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>2020</v>
@@ -644,7 +660,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>2020</v>
@@ -655,7 +671,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>2020</v>
@@ -675,7 +691,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>2020</v>
@@ -695,7 +711,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2020</v>
@@ -715,7 +731,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>2020</v>
@@ -735,7 +751,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>2020</v>
@@ -755,7 +771,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>2020</v>
@@ -775,7 +791,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>2020</v>
@@ -795,7 +811,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>2020</v>
@@ -815,7 +831,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>2020</v>
@@ -835,7 +851,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>2020</v>
@@ -855,7 +871,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>2020</v>
@@ -875,7 +891,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2020</v>
@@ -895,7 +911,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2020</v>
@@ -915,7 +931,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>2020</v>
@@ -933,12 +949,12 @@
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>2020</v>
@@ -956,12 +972,12 @@
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>2020</v>
@@ -981,7 +997,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>2020</v>
@@ -997,6 +1013,451 @@
       </c>
       <c r="F27" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2021</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44551</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>2021</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44551</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>2021</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44551</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>2021</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44551</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>2021</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44551</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2021</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44523</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2021</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44538</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2021</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44516</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44531</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>2021</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44549</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>2021</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>2021</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>2021</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>2021</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44546</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>2021</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44546</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>2021</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44557</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>2021</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44552</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>2021</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>2021</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>2021</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44550</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44557</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>2021</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
